--- a/database/industries/dode/shekarbon/balancesheet/yearly.xlsx
+++ b/database/industries/dode/shekarbon/balancesheet/yearly.xlsx
@@ -192,6 +192,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,6 +221,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -241,6 +261,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -266,6 +301,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -289,6 +339,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -314,6 +379,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -339,6 +419,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -362,6 +457,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -374,25 +484,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/12</t>
         </is>
@@ -409,27 +544,52 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1393-04-19 (7)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1394-03-07 (7)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1395-03-19 (7)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1396-03-09 (8)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1397-03-10 (9)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1398-03-09 (8)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1399-03-09 (8)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1400-03-10 (9)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1401-03-09 (9)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>1401-04-30 (3)</t>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>1401-07-30 (4)</t>
         </is>
       </c>
     </row>
@@ -455,6 +615,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -480,6 +655,21 @@
       <c r="H11" s="14">
         <v/>
       </c>
+      <c r="I11" s="14">
+        <v/>
+      </c>
+      <c r="J11" s="14">
+        <v/>
+      </c>
+      <c r="K11" s="14">
+        <v/>
+      </c>
+      <c r="L11" s="14">
+        <v/>
+      </c>
+      <c r="M11" s="14">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="15" t="inlineStr">
@@ -491,18 +681,33 @@
         <v/>
       </c>
       <c r="D12" s="16">
+        <v>22313</v>
+      </c>
+      <c r="E12" s="16">
+        <v>16358</v>
+      </c>
+      <c r="F12" s="16">
+        <v>9091</v>
+      </c>
+      <c r="G12" s="16">
+        <v>30293</v>
+      </c>
+      <c r="H12" s="16">
+        <v>14658</v>
+      </c>
+      <c r="I12" s="16">
         <v>65218</v>
       </c>
-      <c r="E12" s="16">
+      <c r="J12" s="16">
         <v>92009</v>
       </c>
-      <c r="F12" s="16">
+      <c r="K12" s="16">
         <v>65100</v>
       </c>
-      <c r="G12" s="16">
+      <c r="L12" s="16">
         <v>271614</v>
       </c>
-      <c r="H12" s="16">
+      <c r="M12" s="16">
         <v>474356</v>
       </c>
     </row>
@@ -516,18 +721,33 @@
         <v/>
       </c>
       <c r="D13" s="12">
+        <v>1665</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4043</v>
+      </c>
+      <c r="F13" s="12">
+        <v>3597</v>
+      </c>
+      <c r="G13" s="12">
+        <v>4650</v>
+      </c>
+      <c r="H13" s="12">
+        <v>4825</v>
+      </c>
+      <c r="I13" s="12">
         <v>5519</v>
       </c>
-      <c r="E13" s="12">
+      <c r="J13" s="12">
         <v>8034</v>
       </c>
-      <c r="F13" s="12">
+      <c r="K13" s="12">
         <v>8532</v>
       </c>
-      <c r="G13" s="12">
+      <c r="L13" s="12">
         <v>2972</v>
       </c>
-      <c r="H13" s="12">
+      <c r="M13" s="12">
         <v>2972</v>
       </c>
     </row>
@@ -541,18 +761,33 @@
         <v/>
       </c>
       <c r="D14" s="16">
+        <v>376822</v>
+      </c>
+      <c r="E14" s="16">
+        <v>446028</v>
+      </c>
+      <c r="F14" s="16">
+        <v>518811</v>
+      </c>
+      <c r="G14" s="16">
+        <v>603585</v>
+      </c>
+      <c r="H14" s="16">
+        <v>617580</v>
+      </c>
+      <c r="I14" s="16">
         <v>652635</v>
       </c>
-      <c r="E14" s="16">
+      <c r="J14" s="16">
         <v>440800</v>
       </c>
-      <c r="F14" s="16">
+      <c r="K14" s="16">
         <v>694513</v>
       </c>
-      <c r="G14" s="16">
+      <c r="L14" s="16">
         <v>1006407</v>
       </c>
-      <c r="H14" s="16">
+      <c r="M14" s="16">
         <v>2622056</v>
       </c>
     </row>
@@ -566,18 +801,33 @@
         <v/>
       </c>
       <c r="D15" s="12">
+        <v>155872</v>
+      </c>
+      <c r="E15" s="12">
+        <v>248871</v>
+      </c>
+      <c r="F15" s="12">
+        <v>249323</v>
+      </c>
+      <c r="G15" s="12">
+        <v>126217</v>
+      </c>
+      <c r="H15" s="12">
+        <v>206507</v>
+      </c>
+      <c r="I15" s="12">
         <v>317101</v>
       </c>
-      <c r="E15" s="12">
+      <c r="J15" s="12">
         <v>483343</v>
       </c>
-      <c r="F15" s="12">
+      <c r="K15" s="12">
         <v>653067</v>
       </c>
-      <c r="G15" s="12">
+      <c r="L15" s="12">
         <v>925246</v>
       </c>
-      <c r="H15" s="12">
+      <c r="M15" s="12">
         <v>1818618</v>
       </c>
     </row>
@@ -591,18 +841,33 @@
         <v/>
       </c>
       <c r="D16" s="16">
+        <v>83906</v>
+      </c>
+      <c r="E16" s="16">
+        <v>17087</v>
+      </c>
+      <c r="F16" s="16">
+        <v>13099</v>
+      </c>
+      <c r="G16" s="16">
+        <v>10964</v>
+      </c>
+      <c r="H16" s="16">
+        <v>11745</v>
+      </c>
+      <c r="I16" s="16">
         <v>56466</v>
       </c>
-      <c r="E16" s="16">
+      <c r="J16" s="16">
         <v>371476</v>
       </c>
-      <c r="F16" s="16">
+      <c r="K16" s="16">
         <v>125529</v>
       </c>
-      <c r="G16" s="16">
+      <c r="L16" s="16">
         <v>841628</v>
       </c>
-      <c r="H16" s="16">
+      <c r="M16" s="16">
         <v>614746</v>
       </c>
     </row>
@@ -616,18 +881,33 @@
         <v/>
       </c>
       <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
         <v>144515</v>
       </c>
-      <c r="E17" s="12">
+      <c r="J17" s="12">
         <v>144515</v>
       </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
         <v>0</v>
       </c>
     </row>
@@ -641,18 +921,33 @@
         <v/>
       </c>
       <c r="D18" s="18">
+        <v>640578</v>
+      </c>
+      <c r="E18" s="18">
+        <v>732387</v>
+      </c>
+      <c r="F18" s="18">
+        <v>793921</v>
+      </c>
+      <c r="G18" s="18">
+        <v>775709</v>
+      </c>
+      <c r="H18" s="18">
+        <v>855315</v>
+      </c>
+      <c r="I18" s="18">
         <v>1241454</v>
       </c>
-      <c r="E18" s="18">
+      <c r="J18" s="18">
         <v>1540177</v>
       </c>
-      <c r="F18" s="18">
+      <c r="K18" s="18">
         <v>1546741</v>
       </c>
-      <c r="G18" s="18">
+      <c r="L18" s="18">
         <v>3047867</v>
       </c>
-      <c r="H18" s="18">
+      <c r="M18" s="18">
         <v>5532748</v>
       </c>
     </row>
@@ -680,6 +975,21 @@
       <c r="H19" s="12">
         <v>0</v>
       </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="15" t="inlineStr">
@@ -691,18 +1001,33 @@
         <v/>
       </c>
       <c r="D20" s="16">
+        <v>372125</v>
+      </c>
+      <c r="E20" s="16">
+        <v>385484</v>
+      </c>
+      <c r="F20" s="16">
+        <v>385484</v>
+      </c>
+      <c r="G20" s="16">
+        <v>385484</v>
+      </c>
+      <c r="H20" s="16">
+        <v>413845</v>
+      </c>
+      <c r="I20" s="16">
         <v>269330</v>
       </c>
-      <c r="E20" s="16">
+      <c r="J20" s="16">
         <v>269332</v>
       </c>
-      <c r="F20" s="16">
+      <c r="K20" s="16">
         <v>413823</v>
       </c>
-      <c r="G20" s="16">
+      <c r="L20" s="16">
         <v>659525</v>
       </c>
-      <c r="H20" s="16">
+      <c r="M20" s="16">
         <v>869459</v>
       </c>
     </row>
@@ -715,11 +1040,15 @@
       <c r="C21" s="12">
         <v/>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F21" s="12">
         <v>0</v>
@@ -728,6 +1057,21 @@
         <v>0</v>
       </c>
       <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
         <v>0</v>
       </c>
     </row>
@@ -741,18 +1085,33 @@
         <v/>
       </c>
       <c r="D22" s="16">
+        <v>81532</v>
+      </c>
+      <c r="E22" s="16">
+        <v>135133</v>
+      </c>
+      <c r="F22" s="16">
+        <v>145809</v>
+      </c>
+      <c r="G22" s="16">
+        <v>144365</v>
+      </c>
+      <c r="H22" s="16">
+        <v>141450</v>
+      </c>
+      <c r="I22" s="16">
         <v>157529</v>
       </c>
-      <c r="E22" s="16">
+      <c r="J22" s="16">
         <v>220004</v>
       </c>
-      <c r="F22" s="16">
+      <c r="K22" s="16">
         <v>283486</v>
       </c>
-      <c r="G22" s="16">
+      <c r="L22" s="16">
         <v>282504</v>
       </c>
-      <c r="H22" s="16">
+      <c r="M22" s="16">
         <v>6532795</v>
       </c>
     </row>
@@ -766,18 +1125,33 @@
         <v/>
       </c>
       <c r="D23" s="12">
+        <v>2218</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2112</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2048</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2091</v>
+      </c>
+      <c r="H23" s="12">
+        <v>2005</v>
+      </c>
+      <c r="I23" s="12">
         <v>1940</v>
       </c>
-      <c r="E23" s="12">
+      <c r="J23" s="12">
         <v>23618</v>
       </c>
-      <c r="F23" s="12">
+      <c r="K23" s="12">
         <v>25093</v>
       </c>
-      <c r="G23" s="12">
+      <c r="L23" s="12">
         <v>25586</v>
       </c>
-      <c r="H23" s="12">
+      <c r="M23" s="12">
         <v>23812</v>
       </c>
     </row>
@@ -790,15 +1164,11 @@
       <c r="C24" s="16">
         <v/>
       </c>
-      <c r="D24" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
       </c>
       <c r="F24" s="16" t="inlineStr">
         <is>
@@ -811,6 +1181,31 @@
         </is>
       </c>
       <c r="H24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -840,6 +1235,21 @@
       <c r="H25" s="12">
         <v>0</v>
       </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="17" t="inlineStr">
@@ -851,18 +1261,33 @@
         <v/>
       </c>
       <c r="D26" s="18">
+        <v>455875</v>
+      </c>
+      <c r="E26" s="18">
+        <v>522729</v>
+      </c>
+      <c r="F26" s="18">
+        <v>533341</v>
+      </c>
+      <c r="G26" s="18">
+        <v>531940</v>
+      </c>
+      <c r="H26" s="18">
+        <v>557300</v>
+      </c>
+      <c r="I26" s="18">
         <v>428799</v>
       </c>
-      <c r="E26" s="18">
+      <c r="J26" s="18">
         <v>512954</v>
       </c>
-      <c r="F26" s="18">
+      <c r="K26" s="18">
         <v>722402</v>
       </c>
-      <c r="G26" s="18">
+      <c r="L26" s="18">
         <v>967615</v>
       </c>
-      <c r="H26" s="18">
+      <c r="M26" s="18">
         <v>7426066</v>
       </c>
     </row>
@@ -876,18 +1301,33 @@
         <v/>
       </c>
       <c r="D27" s="20">
+        <v>1096453</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1255116</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1327262</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1307649</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1412615</v>
+      </c>
+      <c r="I27" s="20">
         <v>1670253</v>
       </c>
-      <c r="E27" s="20">
+      <c r="J27" s="20">
         <v>2053131</v>
       </c>
-      <c r="F27" s="20">
+      <c r="K27" s="20">
         <v>2269143</v>
       </c>
-      <c r="G27" s="20">
+      <c r="L27" s="20">
         <v>4015482</v>
       </c>
-      <c r="H27" s="20">
+      <c r="M27" s="20">
         <v>12958814</v>
       </c>
     </row>
@@ -915,6 +1355,21 @@
       <c r="H28" s="14">
         <v/>
       </c>
+      <c r="I28" s="14">
+        <v/>
+      </c>
+      <c r="J28" s="14">
+        <v/>
+      </c>
+      <c r="K28" s="14">
+        <v/>
+      </c>
+      <c r="L28" s="14">
+        <v/>
+      </c>
+      <c r="M28" s="14">
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="15" t="inlineStr">
@@ -926,18 +1381,33 @@
         <v/>
       </c>
       <c r="D29" s="16">
+        <v>274512</v>
+      </c>
+      <c r="E29" s="16">
+        <v>365010</v>
+      </c>
+      <c r="F29" s="16">
+        <v>459940</v>
+      </c>
+      <c r="G29" s="16">
+        <v>463120</v>
+      </c>
+      <c r="H29" s="16">
+        <v>553524</v>
+      </c>
+      <c r="I29" s="16">
         <v>492667</v>
       </c>
-      <c r="E29" s="16">
+      <c r="J29" s="16">
         <v>494547</v>
       </c>
-      <c r="F29" s="16">
+      <c r="K29" s="16">
         <v>417434</v>
       </c>
-      <c r="G29" s="16">
+      <c r="L29" s="16">
         <v>907752</v>
       </c>
-      <c r="H29" s="16">
+      <c r="M29" s="16">
         <v>1323644</v>
       </c>
     </row>
@@ -950,15 +1420,11 @@
       <c r="C30" s="12">
         <v/>
       </c>
-      <c r="D30" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
@@ -971,6 +1437,31 @@
         </is>
       </c>
       <c r="H30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -986,18 +1477,33 @@
         <v/>
       </c>
       <c r="D31" s="16">
+        <v>22565</v>
+      </c>
+      <c r="E31" s="16">
+        <v>10089</v>
+      </c>
+      <c r="F31" s="16">
+        <v>28797</v>
+      </c>
+      <c r="G31" s="16">
+        <v>3302</v>
+      </c>
+      <c r="H31" s="16">
+        <v>6872</v>
+      </c>
+      <c r="I31" s="16">
         <v>59867</v>
       </c>
-      <c r="E31" s="16">
+      <c r="J31" s="16">
         <v>104557</v>
       </c>
-      <c r="F31" s="16">
+      <c r="K31" s="16">
         <v>110496</v>
       </c>
-      <c r="G31" s="16">
+      <c r="L31" s="16">
         <v>505827</v>
       </c>
-      <c r="H31" s="16">
+      <c r="M31" s="16">
         <v>440510</v>
       </c>
     </row>
@@ -1011,18 +1517,33 @@
         <v/>
       </c>
       <c r="D32" s="12">
+        <v>25751</v>
+      </c>
+      <c r="E32" s="12">
+        <v>48704</v>
+      </c>
+      <c r="F32" s="12">
+        <v>27839</v>
+      </c>
+      <c r="G32" s="12">
+        <v>36720</v>
+      </c>
+      <c r="H32" s="12">
+        <v>42255</v>
+      </c>
+      <c r="I32" s="12">
         <v>83196</v>
       </c>
-      <c r="E32" s="12">
+      <c r="J32" s="12">
         <v>169434</v>
       </c>
-      <c r="F32" s="12">
+      <c r="K32" s="12">
         <v>166402</v>
       </c>
-      <c r="G32" s="12">
+      <c r="L32" s="12">
         <v>212925</v>
       </c>
-      <c r="H32" s="12">
+      <c r="M32" s="12">
         <v>324504</v>
       </c>
     </row>
@@ -1036,18 +1557,33 @@
         <v/>
       </c>
       <c r="D33" s="16">
+        <v>37595</v>
+      </c>
+      <c r="E33" s="16">
+        <v>16662</v>
+      </c>
+      <c r="F33" s="16">
+        <v>68984</v>
+      </c>
+      <c r="G33" s="16">
+        <v>91742</v>
+      </c>
+      <c r="H33" s="16">
+        <v>97418</v>
+      </c>
+      <c r="I33" s="16">
         <v>83155</v>
       </c>
-      <c r="E33" s="16">
+      <c r="J33" s="16">
         <v>73321</v>
       </c>
-      <c r="F33" s="16">
+      <c r="K33" s="16">
         <v>83479</v>
       </c>
-      <c r="G33" s="16">
+      <c r="L33" s="16">
         <v>127465</v>
       </c>
-      <c r="H33" s="16">
+      <c r="M33" s="16">
         <v>616769</v>
       </c>
     </row>
@@ -1061,18 +1597,33 @@
         <v/>
       </c>
       <c r="D34" s="12">
+        <v>162729</v>
+      </c>
+      <c r="E34" s="12">
+        <v>203791</v>
+      </c>
+      <c r="F34" s="12">
+        <v>119155</v>
+      </c>
+      <c r="G34" s="12">
+        <v>118374</v>
+      </c>
+      <c r="H34" s="12">
+        <v>127332</v>
+      </c>
+      <c r="I34" s="12">
         <v>138146</v>
       </c>
-      <c r="E34" s="12">
+      <c r="J34" s="12">
         <v>99862</v>
       </c>
-      <c r="F34" s="12">
+      <c r="K34" s="12">
         <v>177043</v>
       </c>
-      <c r="G34" s="12">
+      <c r="L34" s="12">
         <v>185826</v>
       </c>
-      <c r="H34" s="12">
+      <c r="M34" s="12">
         <v>327717</v>
       </c>
     </row>
@@ -1085,11 +1636,15 @@
       <c r="C35" s="16">
         <v/>
       </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0</v>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F35" s="16">
         <v>0</v>
@@ -1098,6 +1653,21 @@
         <v>0</v>
       </c>
       <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1125,6 +1695,21 @@
       <c r="H36" s="12">
         <v>0</v>
       </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" s="17" t="inlineStr">
@@ -1136,18 +1721,33 @@
         <v/>
       </c>
       <c r="D37" s="18">
+        <v>523152</v>
+      </c>
+      <c r="E37" s="18">
+        <v>644256</v>
+      </c>
+      <c r="F37" s="18">
+        <v>704715</v>
+      </c>
+      <c r="G37" s="18">
+        <v>713258</v>
+      </c>
+      <c r="H37" s="18">
+        <v>827401</v>
+      </c>
+      <c r="I37" s="18">
         <v>857031</v>
       </c>
-      <c r="E37" s="18">
+      <c r="J37" s="18">
         <v>941721</v>
       </c>
-      <c r="F37" s="18">
+      <c r="K37" s="18">
         <v>954854</v>
       </c>
-      <c r="G37" s="18">
+      <c r="L37" s="18">
         <v>1939795</v>
       </c>
-      <c r="H37" s="18">
+      <c r="M37" s="18">
         <v>3033144</v>
       </c>
     </row>
@@ -1161,18 +1761,33 @@
         <v/>
       </c>
       <c r="D38" s="12">
-        <v>0</v>
+        <v>8431</v>
       </c>
       <c r="E38" s="12">
         <v>0</v>
       </c>
       <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
         <v>462075</v>
       </c>
-      <c r="G38" s="12">
+      <c r="L38" s="12">
         <v>662279</v>
       </c>
-      <c r="H38" s="12">
+      <c r="M38" s="12">
         <v>861203</v>
       </c>
     </row>
@@ -1185,25 +1800,44 @@
       <c r="C39" s="16">
         <v/>
       </c>
-      <c r="D39" s="16">
-        <v>0</v>
+      <c r="D39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E39" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F39" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H39" s="16" t="inlineStr">
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" s="16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1219,18 +1853,33 @@
         <v/>
       </c>
       <c r="D40" s="12">
-        <v>0</v>
+        <v>125791</v>
       </c>
       <c r="E40" s="12">
-        <v>0</v>
+        <v>11539</v>
       </c>
       <c r="F40" s="12">
-        <v>0</v>
+        <v>33239</v>
       </c>
       <c r="G40" s="12">
-        <v>0</v>
+        <v>6298</v>
       </c>
       <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1244,18 +1893,33 @@
         <v/>
       </c>
       <c r="D41" s="16">
+        <v>20035</v>
+      </c>
+      <c r="E41" s="16">
+        <v>21770</v>
+      </c>
+      <c r="F41" s="16">
+        <v>22389</v>
+      </c>
+      <c r="G41" s="16">
+        <v>27196</v>
+      </c>
+      <c r="H41" s="16">
+        <v>27598</v>
+      </c>
+      <c r="I41" s="16">
         <v>24583</v>
       </c>
-      <c r="E41" s="16">
+      <c r="J41" s="16">
         <v>23667</v>
       </c>
-      <c r="F41" s="16">
+      <c r="K41" s="16">
         <v>32582</v>
       </c>
-      <c r="G41" s="16">
+      <c r="L41" s="16">
         <v>40090</v>
       </c>
-      <c r="H41" s="16">
+      <c r="M41" s="16">
         <v>52936</v>
       </c>
     </row>
@@ -1269,18 +1933,33 @@
         <v/>
       </c>
       <c r="D42" s="20">
+        <v>154257</v>
+      </c>
+      <c r="E42" s="20">
+        <v>33309</v>
+      </c>
+      <c r="F42" s="20">
+        <v>55628</v>
+      </c>
+      <c r="G42" s="20">
+        <v>33494</v>
+      </c>
+      <c r="H42" s="20">
+        <v>27598</v>
+      </c>
+      <c r="I42" s="20">
         <v>24583</v>
       </c>
-      <c r="E42" s="20">
+      <c r="J42" s="20">
         <v>23667</v>
       </c>
-      <c r="F42" s="20">
+      <c r="K42" s="20">
         <v>494657</v>
       </c>
-      <c r="G42" s="20">
+      <c r="L42" s="20">
         <v>702369</v>
       </c>
-      <c r="H42" s="20">
+      <c r="M42" s="20">
         <v>914139</v>
       </c>
     </row>
@@ -1294,18 +1973,33 @@
         <v/>
       </c>
       <c r="D43" s="18">
+        <v>677409</v>
+      </c>
+      <c r="E43" s="18">
+        <v>677565</v>
+      </c>
+      <c r="F43" s="18">
+        <v>760343</v>
+      </c>
+      <c r="G43" s="18">
+        <v>746752</v>
+      </c>
+      <c r="H43" s="18">
+        <v>854999</v>
+      </c>
+      <c r="I43" s="18">
         <v>881614</v>
       </c>
-      <c r="E43" s="18">
+      <c r="J43" s="18">
         <v>965388</v>
       </c>
-      <c r="F43" s="18">
+      <c r="K43" s="18">
         <v>1449511</v>
       </c>
-      <c r="G43" s="18">
+      <c r="L43" s="18">
         <v>2642164</v>
       </c>
-      <c r="H43" s="18">
+      <c r="M43" s="18">
         <v>3947283</v>
       </c>
     </row>
@@ -1333,6 +2027,21 @@
       <c r="H44" s="14">
         <v/>
       </c>
+      <c r="I44" s="14">
+        <v/>
+      </c>
+      <c r="J44" s="14">
+        <v/>
+      </c>
+      <c r="K44" s="14">
+        <v/>
+      </c>
+      <c r="L44" s="14">
+        <v/>
+      </c>
+      <c r="M44" s="14">
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="15" t="inlineStr">
@@ -1356,6 +2065,21 @@
         <v>250000</v>
       </c>
       <c r="H45" s="16">
+        <v>250000</v>
+      </c>
+      <c r="I45" s="16">
+        <v>250000</v>
+      </c>
+      <c r="J45" s="16">
+        <v>250000</v>
+      </c>
+      <c r="K45" s="16">
+        <v>250000</v>
+      </c>
+      <c r="L45" s="16">
+        <v>250000</v>
+      </c>
+      <c r="M45" s="16">
         <v>6385128</v>
       </c>
     </row>
@@ -1383,6 +2107,21 @@
       <c r="H46" s="12">
         <v>0</v>
       </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="15" t="inlineStr">
@@ -1408,6 +2147,21 @@
       <c r="H47" s="16">
         <v>0</v>
       </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" s="11" t="inlineStr">
@@ -1418,19 +2172,38 @@
       <c r="C48" s="12">
         <v/>
       </c>
-      <c r="D48" s="12">
-        <v>0</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0</v>
+      <c r="D48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F48" s="12">
         <v>0</v>
       </c>
       <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
         <v>-233358</v>
       </c>
-      <c r="H48" s="12">
+      <c r="M48" s="12">
         <v>-344777</v>
       </c>
     </row>
@@ -1448,16 +2221,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E49" s="16">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
+      <c r="E49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
         <v>19064</v>
       </c>
     </row>
@@ -1485,6 +2283,21 @@
       <c r="H50" s="12">
         <v>25000</v>
       </c>
+      <c r="I50" s="12">
+        <v>25000</v>
+      </c>
+      <c r="J50" s="12">
+        <v>25000</v>
+      </c>
+      <c r="K50" s="12">
+        <v>25000</v>
+      </c>
+      <c r="L50" s="12">
+        <v>25000</v>
+      </c>
+      <c r="M50" s="12">
+        <v>25000</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" s="15" t="inlineStr">
@@ -1510,6 +2323,21 @@
       <c r="H51" s="16">
         <v>218</v>
       </c>
+      <c r="I51" s="16">
+        <v>218</v>
+      </c>
+      <c r="J51" s="16">
+        <v>218</v>
+      </c>
+      <c r="K51" s="16">
+        <v>218</v>
+      </c>
+      <c r="L51" s="16">
+        <v>218</v>
+      </c>
+      <c r="M51" s="16">
+        <v>218</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" s="11" t="inlineStr">
@@ -1523,22 +2351,37 @@
       <c r="D52" s="12">
         <v>0</v>
       </c>
-      <c r="E52" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F52" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G52" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H52" s="12" t="inlineStr">
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M52" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1568,6 +2411,21 @@
       <c r="H53" s="16">
         <v>0</v>
       </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" s="11" t="inlineStr">
@@ -1581,22 +2439,37 @@
       <c r="D54" s="12">
         <v>0</v>
       </c>
-      <c r="E54" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" s="12" t="inlineStr">
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M54" s="12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1611,11 +2484,15 @@
       <c r="C55" s="16">
         <v/>
       </c>
-      <c r="D55" s="16">
-        <v>0</v>
-      </c>
-      <c r="E55" s="16">
-        <v>0</v>
+      <c r="D55" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E55" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F55" s="16">
         <v>0</v>
@@ -1624,6 +2501,21 @@
         <v>0</v>
       </c>
       <c r="H55" s="16">
+        <v>0</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0</v>
+      </c>
+      <c r="M55" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1637,18 +2529,33 @@
         <v/>
       </c>
       <c r="D56" s="12">
+        <v>143826</v>
+      </c>
+      <c r="E56" s="12">
+        <v>302333</v>
+      </c>
+      <c r="F56" s="12">
+        <v>291701</v>
+      </c>
+      <c r="G56" s="12">
+        <v>285679</v>
+      </c>
+      <c r="H56" s="12">
+        <v>282398</v>
+      </c>
+      <c r="I56" s="12">
         <v>513421</v>
       </c>
-      <c r="E56" s="12">
+      <c r="J56" s="12">
         <v>812525</v>
       </c>
-      <c r="F56" s="12">
+      <c r="K56" s="12">
         <v>544414</v>
       </c>
-      <c r="G56" s="12">
+      <c r="L56" s="12">
         <v>1331458</v>
       </c>
-      <c r="H56" s="12">
+      <c r="M56" s="12">
         <v>2926898</v>
       </c>
     </row>
@@ -1662,18 +2569,33 @@
         <v/>
       </c>
       <c r="D57" s="18">
+        <v>419044</v>
+      </c>
+      <c r="E57" s="18">
+        <v>577551</v>
+      </c>
+      <c r="F57" s="18">
+        <v>566919</v>
+      </c>
+      <c r="G57" s="18">
+        <v>560897</v>
+      </c>
+      <c r="H57" s="18">
+        <v>557616</v>
+      </c>
+      <c r="I57" s="18">
         <v>788639</v>
       </c>
-      <c r="E57" s="18">
+      <c r="J57" s="18">
         <v>1087743</v>
       </c>
-      <c r="F57" s="18">
+      <c r="K57" s="18">
         <v>819632</v>
       </c>
-      <c r="G57" s="18">
+      <c r="L57" s="18">
         <v>1373318</v>
       </c>
-      <c r="H57" s="18">
+      <c r="M57" s="18">
         <v>9011531</v>
       </c>
     </row>
@@ -1687,18 +2609,33 @@
         <v/>
       </c>
       <c r="D58" s="20">
+        <v>1096453</v>
+      </c>
+      <c r="E58" s="20">
+        <v>1255116</v>
+      </c>
+      <c r="F58" s="20">
+        <v>1327262</v>
+      </c>
+      <c r="G58" s="20">
+        <v>1307649</v>
+      </c>
+      <c r="H58" s="20">
+        <v>1412615</v>
+      </c>
+      <c r="I58" s="20">
         <v>1670253</v>
       </c>
-      <c r="E58" s="20">
+      <c r="J58" s="20">
         <v>2053131</v>
       </c>
-      <c r="F58" s="20">
+      <c r="K58" s="20">
         <v>2269143</v>
       </c>
-      <c r="G58" s="20">
+      <c r="L58" s="20">
         <v>4015482</v>
       </c>
-      <c r="H58" s="20">
+      <c r="M58" s="20">
         <v>12958814</v>
       </c>
     </row>
@@ -1722,6 +2659,21 @@
         <v/>
       </c>
       <c r="H59" s="2">
+        <v/>
+      </c>
+      <c r="I59" s="2">
+        <v/>
+      </c>
+      <c r="J59" s="2">
+        <v/>
+      </c>
+      <c r="K59" s="2">
+        <v/>
+      </c>
+      <c r="L59" s="2">
+        <v/>
+      </c>
+      <c r="M59" s="2">
         <v/>
       </c>
     </row>

--- a/database/industries/dode/shekarbon/balancesheet/yearly.xlsx
+++ b/database/industries/dode/shekarbon/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B41DFD-B62C-4523-BA43-BDA62A302250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333AF03E-1819-4E3A-9FE6-D3E2E1BE28A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکربن-کربن‌ ایران‌</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-04-19 (7)</t>
-  </si>
-  <si>
-    <t>1394-03-07 (7)</t>
-  </si>
-  <si>
-    <t>1395-03-19 (7)</t>
-  </si>
-  <si>
-    <t>1396-03-09 (8)</t>
-  </si>
-  <si>
-    <t>1397-03-10 (9)</t>
-  </si>
-  <si>
     <t>1398-03-09 (8)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-03-09 (9)</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -133,16 +103,16 @@
     <t>سرمایه گذاری در املاک</t>
   </si>
   <si>
+    <t>داراییهای ثابت مشهود</t>
+  </si>
+  <si>
+    <t>داراییهای نامشهود</t>
+  </si>
+  <si>
+    <t>پیش پرداخت های سرمایه ای</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>داراییهای ثابت مشهود</t>
-  </si>
-  <si>
-    <t>داراییهای نامشهود</t>
-  </si>
-  <si>
-    <t>پیش پرداخت های سرمایه ای</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -728,18 +698,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -747,13 +717,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,13 +728,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -779,13 +739,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -793,13 +748,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -809,13 +759,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -825,13 +770,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -839,13 +779,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -865,59 +800,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -925,15 +830,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -941,202 +841,122 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>22313</v>
+        <v>65218</v>
       </c>
       <c r="E12" s="15">
-        <v>16358</v>
+        <v>92009</v>
       </c>
       <c r="F12" s="15">
-        <v>9091</v>
+        <v>65100</v>
       </c>
       <c r="G12" s="15">
-        <v>30293</v>
+        <v>271614</v>
       </c>
       <c r="H12" s="15">
-        <v>14658</v>
-      </c>
-      <c r="I12" s="15">
-        <v>65218</v>
-      </c>
-      <c r="J12" s="15">
-        <v>92009</v>
-      </c>
-      <c r="K12" s="15">
-        <v>65100</v>
-      </c>
-      <c r="L12" s="15">
-        <v>271614</v>
-      </c>
-      <c r="M12" s="15">
         <v>474356</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>1665</v>
+        <v>5519</v>
       </c>
       <c r="E13" s="11">
-        <v>4043</v>
+        <v>8034</v>
       </c>
       <c r="F13" s="11">
-        <v>3597</v>
+        <v>8532</v>
       </c>
       <c r="G13" s="11">
-        <v>4650</v>
+        <v>2972</v>
       </c>
       <c r="H13" s="11">
-        <v>4825</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5519</v>
-      </c>
-      <c r="J13" s="11">
-        <v>8034</v>
-      </c>
-      <c r="K13" s="11">
-        <v>8532</v>
-      </c>
-      <c r="L13" s="11">
         <v>2972</v>
       </c>
-      <c r="M13" s="11">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>376822</v>
+        <v>652635</v>
       </c>
       <c r="E14" s="15">
-        <v>446028</v>
+        <v>440800</v>
       </c>
       <c r="F14" s="15">
-        <v>518811</v>
+        <v>694513</v>
       </c>
       <c r="G14" s="15">
-        <v>603585</v>
+        <v>1006407</v>
       </c>
       <c r="H14" s="15">
-        <v>617580</v>
-      </c>
-      <c r="I14" s="15">
-        <v>652635</v>
-      </c>
-      <c r="J14" s="15">
-        <v>440800</v>
-      </c>
-      <c r="K14" s="15">
-        <v>694513</v>
-      </c>
-      <c r="L14" s="15">
-        <v>1006407</v>
-      </c>
-      <c r="M14" s="15">
         <v>2622056</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>155872</v>
+        <v>317101</v>
       </c>
       <c r="E15" s="11">
-        <v>248871</v>
+        <v>483343</v>
       </c>
       <c r="F15" s="11">
-        <v>249323</v>
+        <v>653067</v>
       </c>
       <c r="G15" s="11">
-        <v>126217</v>
+        <v>925246</v>
       </c>
       <c r="H15" s="11">
-        <v>206507</v>
-      </c>
-      <c r="I15" s="11">
-        <v>317101</v>
-      </c>
-      <c r="J15" s="11">
-        <v>483343</v>
-      </c>
-      <c r="K15" s="11">
-        <v>653067</v>
-      </c>
-      <c r="L15" s="11">
-        <v>925246</v>
-      </c>
-      <c r="M15" s="11">
         <v>1818618</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>83906</v>
+        <v>56466</v>
       </c>
       <c r="E16" s="15">
-        <v>17087</v>
+        <v>371476</v>
       </c>
       <c r="F16" s="15">
-        <v>13099</v>
+        <v>125529</v>
       </c>
       <c r="G16" s="15">
-        <v>10964</v>
+        <v>841628</v>
       </c>
       <c r="H16" s="15">
-        <v>11745</v>
-      </c>
-      <c r="I16" s="15">
-        <v>56466</v>
-      </c>
-      <c r="J16" s="15">
-        <v>371476</v>
-      </c>
-      <c r="K16" s="15">
-        <v>125529</v>
-      </c>
-      <c r="L16" s="15">
-        <v>841628</v>
-      </c>
-      <c r="M16" s="15">
         <v>614746</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>0</v>
+        <v>144515</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>144515</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -1147,61 +967,31 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>144515</v>
-      </c>
-      <c r="J17" s="11">
-        <v>144515</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>640578</v>
+        <v>1241454</v>
       </c>
       <c r="E18" s="17">
-        <v>732387</v>
+        <v>1540177</v>
       </c>
       <c r="F18" s="17">
-        <v>793921</v>
+        <v>1546741</v>
       </c>
       <c r="G18" s="17">
-        <v>775709</v>
+        <v>3047867</v>
       </c>
       <c r="H18" s="17">
-        <v>855315</v>
-      </c>
-      <c r="I18" s="17">
-        <v>1241454</v>
-      </c>
-      <c r="J18" s="17">
-        <v>1540177</v>
-      </c>
-      <c r="K18" s="17">
-        <v>1546741</v>
-      </c>
-      <c r="L18" s="17">
-        <v>3047867</v>
-      </c>
-      <c r="M18" s="17">
         <v>5532748</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1219,68 +1009,38 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>372125</v>
+        <v>269330</v>
       </c>
       <c r="E20" s="15">
-        <v>385484</v>
+        <v>269332</v>
       </c>
       <c r="F20" s="15">
-        <v>385484</v>
+        <v>413823</v>
       </c>
       <c r="G20" s="15">
-        <v>385484</v>
+        <v>659525</v>
       </c>
       <c r="H20" s="15">
-        <v>413845</v>
-      </c>
-      <c r="I20" s="15">
-        <v>269330</v>
-      </c>
-      <c r="J20" s="15">
-        <v>269332</v>
-      </c>
-      <c r="K20" s="15">
-        <v>413823</v>
-      </c>
-      <c r="L20" s="15">
-        <v>659525</v>
-      </c>
-      <c r="M20" s="15">
         <v>869459</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>37</v>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -1291,133 +1051,73 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>81532</v>
+        <v>157529</v>
       </c>
       <c r="E22" s="15">
-        <v>135133</v>
+        <v>220004</v>
       </c>
       <c r="F22" s="15">
-        <v>145809</v>
+        <v>283486</v>
       </c>
       <c r="G22" s="15">
-        <v>144365</v>
+        <v>282504</v>
       </c>
       <c r="H22" s="15">
-        <v>141450</v>
-      </c>
-      <c r="I22" s="15">
-        <v>157529</v>
-      </c>
-      <c r="J22" s="15">
-        <v>220004</v>
-      </c>
-      <c r="K22" s="15">
-        <v>283486</v>
-      </c>
-      <c r="L22" s="15">
-        <v>282504</v>
-      </c>
-      <c r="M22" s="15">
         <v>6532795</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>2218</v>
+        <v>1940</v>
       </c>
       <c r="E23" s="11">
-        <v>2112</v>
+        <v>23618</v>
       </c>
       <c r="F23" s="11">
-        <v>2048</v>
+        <v>25093</v>
       </c>
       <c r="G23" s="11">
-        <v>2091</v>
+        <v>25586</v>
       </c>
       <c r="H23" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I23" s="11">
-        <v>1940</v>
-      </c>
-      <c r="J23" s="11">
-        <v>23618</v>
-      </c>
-      <c r="K23" s="11">
-        <v>25093</v>
-      </c>
-      <c r="L23" s="11">
-        <v>25586</v>
-      </c>
-      <c r="M23" s="11">
         <v>23812</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
+      <c r="D24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1435,97 +1135,52 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>455875</v>
+        <v>428799</v>
       </c>
       <c r="E26" s="17">
-        <v>522729</v>
+        <v>512954</v>
       </c>
       <c r="F26" s="17">
-        <v>533341</v>
+        <v>722402</v>
       </c>
       <c r="G26" s="17">
-        <v>531940</v>
+        <v>967615</v>
       </c>
       <c r="H26" s="17">
-        <v>557300</v>
-      </c>
-      <c r="I26" s="17">
-        <v>428799</v>
-      </c>
-      <c r="J26" s="17">
-        <v>512954</v>
-      </c>
-      <c r="K26" s="17">
-        <v>722402</v>
-      </c>
-      <c r="L26" s="17">
-        <v>967615</v>
-      </c>
-      <c r="M26" s="17">
         <v>7426066</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1096453</v>
+        <v>1670253</v>
       </c>
       <c r="E27" s="19">
-        <v>1255116</v>
+        <v>2053131</v>
       </c>
       <c r="F27" s="19">
-        <v>1327262</v>
+        <v>2269143</v>
       </c>
       <c r="G27" s="19">
-        <v>1307649</v>
+        <v>4015482</v>
       </c>
       <c r="H27" s="19">
-        <v>1412615</v>
-      </c>
-      <c r="I27" s="19">
-        <v>1670253</v>
-      </c>
-      <c r="J27" s="19">
-        <v>2053131</v>
-      </c>
-      <c r="K27" s="19">
-        <v>2269143</v>
-      </c>
-      <c r="L27" s="19">
-        <v>4015482</v>
-      </c>
-      <c r="M27" s="19">
         <v>12958814</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1533,238 +1188,143 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>274512</v>
+        <v>492667</v>
       </c>
       <c r="E29" s="15">
-        <v>365010</v>
+        <v>494547</v>
       </c>
       <c r="F29" s="15">
-        <v>459940</v>
+        <v>417434</v>
       </c>
       <c r="G29" s="15">
-        <v>463120</v>
+        <v>907752</v>
       </c>
       <c r="H29" s="15">
-        <v>553524</v>
-      </c>
-      <c r="I29" s="15">
-        <v>492667</v>
-      </c>
-      <c r="J29" s="15">
-        <v>494547</v>
-      </c>
-      <c r="K29" s="15">
-        <v>417434</v>
-      </c>
-      <c r="L29" s="15">
-        <v>907752</v>
-      </c>
-      <c r="M29" s="15">
         <v>1323644</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
+      <c r="D30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>22565</v>
+        <v>59867</v>
       </c>
       <c r="E31" s="15">
-        <v>10089</v>
+        <v>104557</v>
       </c>
       <c r="F31" s="15">
-        <v>28797</v>
+        <v>110496</v>
       </c>
       <c r="G31" s="15">
-        <v>3302</v>
+        <v>505827</v>
       </c>
       <c r="H31" s="15">
-        <v>6872</v>
-      </c>
-      <c r="I31" s="15">
-        <v>59867</v>
-      </c>
-      <c r="J31" s="15">
-        <v>104557</v>
-      </c>
-      <c r="K31" s="15">
-        <v>110496</v>
-      </c>
-      <c r="L31" s="15">
-        <v>505827</v>
-      </c>
-      <c r="M31" s="15">
         <v>440510</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>25751</v>
+        <v>83196</v>
       </c>
       <c r="E32" s="11">
-        <v>48704</v>
+        <v>169434</v>
       </c>
       <c r="F32" s="11">
-        <v>27839</v>
+        <v>166402</v>
       </c>
       <c r="G32" s="11">
-        <v>36720</v>
+        <v>212925</v>
       </c>
       <c r="H32" s="11">
-        <v>42255</v>
-      </c>
-      <c r="I32" s="11">
-        <v>83196</v>
-      </c>
-      <c r="J32" s="11">
-        <v>169434</v>
-      </c>
-      <c r="K32" s="11">
-        <v>166402</v>
-      </c>
-      <c r="L32" s="11">
-        <v>212925</v>
-      </c>
-      <c r="M32" s="11">
         <v>324504</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>37595</v>
+        <v>83155</v>
       </c>
       <c r="E33" s="15">
-        <v>16662</v>
+        <v>73321</v>
       </c>
       <c r="F33" s="15">
-        <v>68984</v>
+        <v>83479</v>
       </c>
       <c r="G33" s="15">
-        <v>91742</v>
+        <v>127465</v>
       </c>
       <c r="H33" s="15">
-        <v>97418</v>
-      </c>
-      <c r="I33" s="15">
-        <v>83155</v>
-      </c>
-      <c r="J33" s="15">
-        <v>73321</v>
-      </c>
-      <c r="K33" s="15">
-        <v>83479</v>
-      </c>
-      <c r="L33" s="15">
-        <v>127465</v>
-      </c>
-      <c r="M33" s="15">
         <v>616769</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>162729</v>
+        <v>138146</v>
       </c>
       <c r="E34" s="11">
-        <v>203791</v>
+        <v>99862</v>
       </c>
       <c r="F34" s="11">
-        <v>119155</v>
+        <v>177043</v>
       </c>
       <c r="G34" s="11">
-        <v>118374</v>
+        <v>185826</v>
       </c>
       <c r="H34" s="11">
-        <v>127332</v>
-      </c>
-      <c r="I34" s="11">
-        <v>138146</v>
-      </c>
-      <c r="J34" s="11">
-        <v>99862</v>
-      </c>
-      <c r="K34" s="11">
-        <v>177043</v>
-      </c>
-      <c r="L34" s="11">
-        <v>185826</v>
-      </c>
-      <c r="M34" s="11">
         <v>327717</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>37</v>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
@@ -1775,25 +1335,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1811,277 +1356,157 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>523152</v>
+        <v>857031</v>
       </c>
       <c r="E37" s="17">
-        <v>644256</v>
+        <v>941721</v>
       </c>
       <c r="F37" s="17">
-        <v>704715</v>
+        <v>954854</v>
       </c>
       <c r="G37" s="17">
-        <v>713258</v>
+        <v>1939795</v>
       </c>
       <c r="H37" s="17">
-        <v>827401</v>
-      </c>
-      <c r="I37" s="17">
-        <v>857031</v>
-      </c>
-      <c r="J37" s="17">
-        <v>941721</v>
-      </c>
-      <c r="K37" s="17">
-        <v>954854</v>
-      </c>
-      <c r="L37" s="17">
-        <v>1939795</v>
-      </c>
-      <c r="M37" s="17">
         <v>3033144</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>8431</v>
+        <v>0</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>462075</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>662279</v>
       </c>
       <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>462075</v>
-      </c>
-      <c r="L38" s="11">
-        <v>662279</v>
-      </c>
-      <c r="M38" s="11">
         <v>861203</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>37</v>
+      <c r="D39" s="15">
+        <v>0</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>125791</v>
+        <v>0</v>
       </c>
       <c r="E40" s="11">
-        <v>11539</v>
+        <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>33239</v>
+        <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>6298</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>20035</v>
+        <v>24583</v>
       </c>
       <c r="E41" s="15">
-        <v>21770</v>
+        <v>23667</v>
       </c>
       <c r="F41" s="15">
-        <v>22389</v>
+        <v>32582</v>
       </c>
       <c r="G41" s="15">
-        <v>27196</v>
+        <v>40090</v>
       </c>
       <c r="H41" s="15">
-        <v>27598</v>
-      </c>
-      <c r="I41" s="15">
-        <v>24583</v>
-      </c>
-      <c r="J41" s="15">
-        <v>23667</v>
-      </c>
-      <c r="K41" s="15">
-        <v>32582</v>
-      </c>
-      <c r="L41" s="15">
-        <v>40090</v>
-      </c>
-      <c r="M41" s="15">
         <v>52936</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>154257</v>
+        <v>24583</v>
       </c>
       <c r="E42" s="19">
-        <v>33309</v>
+        <v>23667</v>
       </c>
       <c r="F42" s="19">
-        <v>55628</v>
+        <v>494657</v>
       </c>
       <c r="G42" s="19">
-        <v>33494</v>
+        <v>702369</v>
       </c>
       <c r="H42" s="19">
-        <v>27598</v>
-      </c>
-      <c r="I42" s="19">
-        <v>24583</v>
-      </c>
-      <c r="J42" s="19">
-        <v>23667</v>
-      </c>
-      <c r="K42" s="19">
-        <v>494657</v>
-      </c>
-      <c r="L42" s="19">
-        <v>702369</v>
-      </c>
-      <c r="M42" s="19">
         <v>914139</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>677409</v>
+        <v>881614</v>
       </c>
       <c r="E43" s="17">
-        <v>677565</v>
+        <v>965388</v>
       </c>
       <c r="F43" s="17">
-        <v>760343</v>
+        <v>1449511</v>
       </c>
       <c r="G43" s="17">
-        <v>746752</v>
+        <v>2642164</v>
       </c>
       <c r="H43" s="17">
-        <v>854999</v>
-      </c>
-      <c r="I43" s="17">
-        <v>881614</v>
-      </c>
-      <c r="J43" s="17">
-        <v>965388</v>
-      </c>
-      <c r="K43" s="17">
-        <v>1449511</v>
-      </c>
-      <c r="L43" s="17">
-        <v>2642164</v>
-      </c>
-      <c r="M43" s="17">
         <v>3947283</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2089,15 +1514,10 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2113,27 +1533,12 @@
         <v>250000</v>
       </c>
       <c r="H45" s="15">
-        <v>250000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>250000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>250000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>250000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>250000</v>
-      </c>
-      <c r="M45" s="15">
         <v>6385128</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2151,25 +1556,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2187,97 +1577,52 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>37</v>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-233358</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>-233358</v>
-      </c>
-      <c r="M48" s="11">
         <v>-344777</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
+        <v>30</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
         <v>19064</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
@@ -2295,25 +1640,10 @@
       <c r="H50" s="11">
         <v>25000</v>
       </c>
-      <c r="I50" s="11">
-        <v>25000</v>
-      </c>
-      <c r="J50" s="11">
-        <v>25000</v>
-      </c>
-      <c r="K50" s="11">
-        <v>25000</v>
-      </c>
-      <c r="L50" s="11">
-        <v>25000</v>
-      </c>
-      <c r="M50" s="11">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2331,61 +1661,31 @@
       <c r="H51" s="15">
         <v>218</v>
       </c>
-      <c r="I51" s="15">
-        <v>218</v>
-      </c>
-      <c r="J51" s="15">
-        <v>218</v>
-      </c>
-      <c r="K51" s="15">
-        <v>218</v>
-      </c>
-      <c r="L51" s="15">
-        <v>218</v>
-      </c>
-      <c r="M51" s="15">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
         <v>0</v>
       </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2403,68 +1703,38 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
         <v>0</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>37</v>
+      <c r="D55" s="15">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0</v>
       </c>
       <c r="F55" s="15">
         <v>0</v>
@@ -2475,131 +1745,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>143826</v>
+        <v>513421</v>
       </c>
       <c r="E56" s="11">
-        <v>302333</v>
+        <v>812525</v>
       </c>
       <c r="F56" s="11">
-        <v>291701</v>
+        <v>544414</v>
       </c>
       <c r="G56" s="11">
-        <v>285679</v>
+        <v>1331458</v>
       </c>
       <c r="H56" s="11">
-        <v>282398</v>
-      </c>
-      <c r="I56" s="11">
-        <v>513421</v>
-      </c>
-      <c r="J56" s="11">
-        <v>812525</v>
-      </c>
-      <c r="K56" s="11">
-        <v>544414</v>
-      </c>
-      <c r="L56" s="11">
-        <v>1331458</v>
-      </c>
-      <c r="M56" s="11">
         <v>2926898</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>419044</v>
+        <v>788639</v>
       </c>
       <c r="E57" s="17">
-        <v>577551</v>
+        <v>1087743</v>
       </c>
       <c r="F57" s="17">
-        <v>566919</v>
+        <v>819632</v>
       </c>
       <c r="G57" s="17">
-        <v>560897</v>
+        <v>1373318</v>
       </c>
       <c r="H57" s="17">
-        <v>557616</v>
-      </c>
-      <c r="I57" s="17">
-        <v>788639</v>
-      </c>
-      <c r="J57" s="17">
-        <v>1087743</v>
-      </c>
-      <c r="K57" s="17">
-        <v>819632</v>
-      </c>
-      <c r="L57" s="17">
-        <v>1373318</v>
-      </c>
-      <c r="M57" s="17">
         <v>9011531</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1096453</v>
+        <v>1670253</v>
       </c>
       <c r="E58" s="19">
-        <v>1255116</v>
+        <v>2053131</v>
       </c>
       <c r="F58" s="19">
-        <v>1327262</v>
+        <v>2269143</v>
       </c>
       <c r="G58" s="19">
-        <v>1307649</v>
+        <v>4015482</v>
       </c>
       <c r="H58" s="19">
-        <v>1412615</v>
-      </c>
-      <c r="I58" s="19">
-        <v>1670253</v>
-      </c>
-      <c r="J58" s="19">
-        <v>2053131</v>
-      </c>
-      <c r="K58" s="19">
-        <v>2269143</v>
-      </c>
-      <c r="L58" s="19">
-        <v>4015482</v>
-      </c>
-      <c r="M58" s="19">
         <v>12958814</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2607,11 +1817,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/dode/shekarbon/balancesheet/yearly.xlsx
+++ b/database/industries/dode/shekarbon/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333AF03E-1819-4E3A-9FE6-D3E2E1BE28A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79ECF5C-2024-4D7A-804D-7545D3F8004A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>474356</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,7 +884,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -905,7 +905,7 @@
         <v>2622056</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1818618</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>614746</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
@@ -989,7 +989,7 @@
         <v>5532748</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>869459</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>6532795</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>23812</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>7426066</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>12958814</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>1323644</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>440510</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>324504</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>616769</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>327717</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>3033144</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>861203</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>52936</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>914139</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>3947283</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>6385128</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>-344777</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>19064</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>2926898</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>9011531</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>12958814</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
